--- a/MoldOffsetRecord/MES/Audio Offset.xlsx
+++ b/MoldOffsetRecord/MES/Audio Offset.xlsx
@@ -84,7 +84,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79964598529007846"/>
+        <fgColor theme="8" tint="0.7993713187047945"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,9 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
